--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/60/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/60/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.427930000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5427.93</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>5.8105</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>5810.5</v>
       </c>
     </row>
     <row r="9">
@@ -532,285 +532,285 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.734560000000001</v>
+        <v>6.093170000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>7734.56</v>
+        <v>6093.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247961</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>7.9926</v>
+        <v>6.25219</v>
       </c>
       <c r="C10" t="n">
-        <v>7992.6</v>
+        <v>6252.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278887</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>8.265309999999999</v>
+        <v>6.358630000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>8265.309999999999</v>
+        <v>6358.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309812</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>8.40901</v>
+        <v>6.41952</v>
       </c>
       <c r="C12" t="n">
-        <v>8409.01</v>
+        <v>6419.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340737</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>8.527270000000001</v>
+        <v>6.44923</v>
       </c>
       <c r="C13" t="n">
-        <v>8527.27</v>
+        <v>6449.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371662</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>8.621979999999999</v>
+        <v>6.45707</v>
       </c>
       <c r="C14" t="n">
-        <v>8621.98</v>
+        <v>6457.07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402587</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>8.70767</v>
+        <v>6.457310000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>8707.67</v>
+        <v>6457.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433512</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>8.774850000000001</v>
+        <v>6.45206</v>
       </c>
       <c r="C16" t="n">
-        <v>8774.85</v>
+        <v>6452.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464437</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>8.829379999999999</v>
+        <v>6.44444</v>
       </c>
       <c r="C17" t="n">
-        <v>8829.379999999999</v>
+        <v>6444.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495362</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>8.862969999999999</v>
+        <v>6.4355</v>
       </c>
       <c r="C18" t="n">
-        <v>8862.969999999999</v>
+        <v>6435.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5262869999999999</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>8.88851</v>
+        <v>6.42521</v>
       </c>
       <c r="C19" t="n">
-        <v>8888.51</v>
+        <v>6425.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557212</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>8.90419</v>
+        <v>6.41388</v>
       </c>
       <c r="C20" t="n">
-        <v>8904.190000000001</v>
+        <v>6413.88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588137</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>8.907120000000001</v>
+        <v>6.401590000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>8907.120000000001</v>
+        <v>6401.59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619179</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>8.90016</v>
+        <v>6.388350000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>8900.16</v>
+        <v>6388.35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650352</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>8.88644</v>
+        <v>6.373970000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>8886.440000000001</v>
+        <v>6373.97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681524</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>8.866110000000001</v>
+        <v>6.358560000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>8866.110000000001</v>
+        <v>6358.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712701</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>8.840620000000001</v>
+        <v>6.34224</v>
       </c>
       <c r="C25" t="n">
-        <v>8840.620000000001</v>
+        <v>6342.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743874</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>8.811219999999999</v>
+        <v>6.325010000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>8811.219999999999</v>
+        <v>6325.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775051</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>8.77975</v>
+        <v>6.306859999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>8779.75</v>
+        <v>6306.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806223</v>
+        <v>0.80623</v>
       </c>
       <c r="B28" t="n">
-        <v>8.745750000000001</v>
+        <v>6.28791</v>
       </c>
       <c r="C28" t="n">
-        <v>8745.75</v>
+        <v>6287.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837396</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>8.70945</v>
+        <v>6.268140000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>8709.450000000001</v>
+        <v>6268.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868573</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>8.671370000000001</v>
+        <v>6.247560000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>8671.370000000001</v>
+        <v>6247.56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899746</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>8.63189</v>
+        <v>6.22613</v>
       </c>
       <c r="C31" t="n">
-        <v>8631.889999999999</v>
+        <v>6226.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930918</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>8.590310000000001</v>
+        <v>6.20368</v>
       </c>
       <c r="C32" t="n">
-        <v>8590.309999999999</v>
+        <v>6203.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962095</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>8.547040000000001</v>
+        <v>6.179939999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>8547.040000000001</v>
+        <v>6179.94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993268</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>8.501719999999999</v>
+        <v>6.15529</v>
       </c>
       <c r="C34" t="n">
-        <v>8501.719999999999</v>
+        <v>6155.29</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>8.453719999999999</v>
+        <v>6.1297</v>
       </c>
       <c r="C35" t="n">
-        <v>8453.719999999999</v>
+        <v>6129.7</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>8.40268</v>
+        <v>6.10313</v>
       </c>
       <c r="C36" t="n">
-        <v>8402.68</v>
+        <v>6103.13</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>8.348870000000002</v>
+        <v>6.075270000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>8348.870000000001</v>
+        <v>6075.27</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>8.29124</v>
+        <v>6.04623</v>
       </c>
       <c r="C38" t="n">
-        <v>8291.24</v>
+        <v>6046.23</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>8.23034</v>
+        <v>6.01602</v>
       </c>
       <c r="C39" t="n">
-        <v>8230.34</v>
+        <v>6016.02</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>8.16597</v>
+        <v>5.98459</v>
       </c>
       <c r="C40" t="n">
-        <v>8165.97</v>
+        <v>5984.59</v>
       </c>
     </row>
     <row r="41">
@@ -884,681 +884,681 @@
         <v>1.21286</v>
       </c>
       <c r="B41" t="n">
-        <v>8.09808</v>
+        <v>5.951890000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>8098.08</v>
+        <v>5951.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24424</v>
+        <v>1.24389</v>
       </c>
       <c r="B42" t="n">
-        <v>8.02637</v>
+        <v>5.91795</v>
       </c>
       <c r="C42" t="n">
-        <v>8026.37</v>
+        <v>5917.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27539</v>
+        <v>1.27497</v>
       </c>
       <c r="B43" t="n">
-        <v>7.951270000000001</v>
+        <v>5.882479999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>7951.27</v>
+        <v>5882.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30628</v>
+        <v>1.30586</v>
       </c>
       <c r="B44" t="n">
-        <v>7.87263</v>
+        <v>5.84588</v>
       </c>
       <c r="C44" t="n">
-        <v>7872.63</v>
+        <v>5845.88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33736</v>
+        <v>1.33701</v>
       </c>
       <c r="B45" t="n">
-        <v>7.79008</v>
+        <v>5.80747</v>
       </c>
       <c r="C45" t="n">
-        <v>7790.08</v>
+        <v>5807.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36825</v>
+        <v>1.36776</v>
       </c>
       <c r="B46" t="n">
-        <v>7.7043</v>
+        <v>5.767810000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>7704.3</v>
+        <v>5767.81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39941</v>
+        <v>1.399</v>
       </c>
       <c r="B47" t="n">
-        <v>7.614050000000001</v>
+        <v>5.72562</v>
       </c>
       <c r="C47" t="n">
-        <v>7614.05</v>
+        <v>5725.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.4302</v>
+        <v>1.42985</v>
       </c>
       <c r="B48" t="n">
-        <v>7.52137</v>
+        <v>5.68204</v>
       </c>
       <c r="C48" t="n">
-        <v>7521.37</v>
+        <v>5682.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46138</v>
+        <v>1.46096</v>
       </c>
       <c r="B49" t="n">
-        <v>7.4236</v>
+        <v>5.636270000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>7423.6</v>
+        <v>5636.27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49216</v>
+        <v>1.49194</v>
       </c>
       <c r="B50" t="n">
-        <v>7.32403</v>
+        <v>5.588649999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>7324.03</v>
+        <v>5588.65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52341</v>
+        <v>1.5229</v>
       </c>
       <c r="B51" t="n">
-        <v>7.21949</v>
+        <v>5.53897</v>
       </c>
       <c r="C51" t="n">
-        <v>7219.49</v>
+        <v>5538.97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55417</v>
+        <v>1.55396</v>
       </c>
       <c r="B52" t="n">
-        <v>7.113630000000001</v>
+        <v>5.48691</v>
       </c>
       <c r="C52" t="n">
-        <v>7113.63</v>
+        <v>5486.91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58539</v>
+        <v>1.58484</v>
       </c>
       <c r="B53" t="n">
-        <v>7.002899999999999</v>
+        <v>5.43319</v>
       </c>
       <c r="C53" t="n">
-        <v>7002.9</v>
+        <v>5433.19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61626</v>
+        <v>1.616</v>
       </c>
       <c r="B54" t="n">
-        <v>6.89192</v>
+        <v>5.37679</v>
       </c>
       <c r="C54" t="n">
-        <v>6891.92</v>
+        <v>5376.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64741</v>
+        <v>1.64672</v>
       </c>
       <c r="B55" t="n">
-        <v>6.77759</v>
+        <v>5.31903</v>
       </c>
       <c r="C55" t="n">
-        <v>6777.59</v>
+        <v>5319.03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67824</v>
+        <v>1.67802</v>
       </c>
       <c r="B56" t="n">
-        <v>6.66244</v>
+        <v>5.258109999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>6662.44</v>
+        <v>5258.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70941</v>
+        <v>1.70872</v>
       </c>
       <c r="B57" t="n">
-        <v>6.54501</v>
+        <v>5.19649</v>
       </c>
       <c r="C57" t="n">
-        <v>6545.01</v>
+        <v>5196.49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74025</v>
+        <v>1.74002</v>
       </c>
       <c r="B58" t="n">
-        <v>6.4284</v>
+        <v>5.1315</v>
       </c>
       <c r="C58" t="n">
-        <v>6428.4</v>
+        <v>5131.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77148</v>
+        <v>1.77067</v>
       </c>
       <c r="B59" t="n">
-        <v>6.310560000000001</v>
+        <v>5.06619</v>
       </c>
       <c r="C59" t="n">
-        <v>6310.56</v>
+        <v>5066.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80215</v>
+        <v>1.80201</v>
       </c>
       <c r="B60" t="n">
-        <v>6.19492</v>
+        <v>4.997800000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>6194.92</v>
+        <v>4997.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83347</v>
+        <v>1.83274</v>
       </c>
       <c r="B61" t="n">
-        <v>6.077520000000001</v>
+        <v>4.929279999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>6077.52</v>
+        <v>4929.28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86417</v>
+        <v>1.86401</v>
       </c>
       <c r="B62" t="n">
-        <v>5.963229999999999</v>
+        <v>4.85834</v>
       </c>
       <c r="C62" t="n">
-        <v>5963.23</v>
+        <v>4858.34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89543</v>
+        <v>1.89489</v>
       </c>
       <c r="B63" t="n">
-        <v>5.84839</v>
+        <v>4.787</v>
       </c>
       <c r="C63" t="n">
-        <v>5848.39</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92634</v>
+        <v>1.92591</v>
       </c>
       <c r="B64" t="n">
-        <v>5.73608</v>
+        <v>4.71443</v>
       </c>
       <c r="C64" t="n">
-        <v>5736.08</v>
+        <v>4714.43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95728</v>
+        <v>1.95703</v>
       </c>
       <c r="B65" t="n">
-        <v>5.62599</v>
+        <v>4.64121</v>
       </c>
       <c r="C65" t="n">
-        <v>5625.99</v>
+        <v>4641.21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98848</v>
+        <v>1.98758</v>
       </c>
       <c r="B66" t="n">
-        <v>5.517399999999999</v>
+        <v>4.56898</v>
       </c>
       <c r="C66" t="n">
-        <v>5517.4</v>
+        <v>4568.98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0192</v>
+        <v>2.01905</v>
       </c>
       <c r="B67" t="n">
-        <v>5.41428</v>
+        <v>4.49419</v>
       </c>
       <c r="C67" t="n">
-        <v>5414.28</v>
+        <v>4494.19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05048</v>
+        <v>2.05016</v>
       </c>
       <c r="B68" t="n">
-        <v>5.31233</v>
+        <v>4.42077</v>
       </c>
       <c r="C68" t="n">
-        <v>5312.33</v>
+        <v>4420.77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08147</v>
+        <v>2.08077</v>
       </c>
       <c r="B69" t="n">
-        <v>5.21553</v>
+        <v>4.34721</v>
       </c>
       <c r="C69" t="n">
-        <v>5215.53</v>
+        <v>4347.21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11219</v>
+        <v>2.11239</v>
       </c>
       <c r="B70" t="n">
-        <v>5.12353</v>
+        <v>4.273140000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>5123.53</v>
+        <v>4273.14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14347</v>
+        <v>2.14277</v>
       </c>
       <c r="B71" t="n">
-        <v>5.03266</v>
+        <v>4.20133</v>
       </c>
       <c r="C71" t="n">
-        <v>5032.66</v>
+        <v>4201.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17476</v>
+        <v>2.1739</v>
       </c>
       <c r="B72" t="n">
-        <v>4.94675</v>
+        <v>4.12931</v>
       </c>
       <c r="C72" t="n">
-        <v>4946.75</v>
+        <v>4129.31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20501</v>
+        <v>2.20534</v>
       </c>
       <c r="B73" t="n">
-        <v>4.865550000000001</v>
+        <v>4.0579</v>
       </c>
       <c r="C73" t="n">
-        <v>4865.55</v>
+        <v>4057.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23663</v>
+        <v>2.23574</v>
       </c>
       <c r="B74" t="n">
-        <v>4.78551</v>
+        <v>3.98906</v>
       </c>
       <c r="C74" t="n">
-        <v>4785.51</v>
+        <v>3989.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2677</v>
+        <v>2.26645</v>
       </c>
       <c r="B75" t="n">
-        <v>4.70987</v>
+        <v>3.92202</v>
       </c>
       <c r="C75" t="n">
-        <v>4709.87</v>
+        <v>3922.02</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29843</v>
+        <v>2.29716</v>
       </c>
       <c r="B76" t="n">
-        <v>4.637810000000001</v>
+        <v>3.85631</v>
       </c>
       <c r="C76" t="n">
-        <v>4637.81</v>
+        <v>3856.31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33043</v>
+        <v>2.32795</v>
       </c>
       <c r="B77" t="n">
-        <v>4.56801</v>
+        <v>3.79186</v>
       </c>
       <c r="C77" t="n">
-        <v>4568.01</v>
+        <v>3791.86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36148</v>
+        <v>2.35903</v>
       </c>
       <c r="B78" t="n">
-        <v>4.50166</v>
+        <v>3.72713</v>
       </c>
       <c r="C78" t="n">
-        <v>4501.66</v>
+        <v>3727.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39188</v>
+        <v>2.39012</v>
       </c>
       <c r="B79" t="n">
-        <v>4.43929</v>
+        <v>3.66415</v>
       </c>
       <c r="C79" t="n">
-        <v>4439.29</v>
+        <v>3664.15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42295</v>
+        <v>2.42121</v>
       </c>
       <c r="B80" t="n">
-        <v>4.37847</v>
+        <v>3.60356</v>
       </c>
       <c r="C80" t="n">
-        <v>4378.47</v>
+        <v>3603.56</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45289</v>
+        <v>2.45115</v>
       </c>
       <c r="B81" t="n">
-        <v>4.32817</v>
+        <v>3.54809</v>
       </c>
       <c r="C81" t="n">
-        <v>4328.17</v>
+        <v>3548.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48215</v>
+        <v>2.48041</v>
       </c>
       <c r="B82" t="n">
-        <v>4.28195</v>
+        <v>3.49585</v>
       </c>
       <c r="C82" t="n">
-        <v>4281.95</v>
+        <v>3495.85</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51344</v>
+        <v>2.50967</v>
       </c>
       <c r="B83" t="n">
-        <v>4.255850000000001</v>
+        <v>3.44534</v>
       </c>
       <c r="C83" t="n">
-        <v>4255.85</v>
+        <v>3445.34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54414</v>
+        <v>2.53935</v>
       </c>
       <c r="B84" t="n">
-        <v>4.24742</v>
+        <v>3.39634</v>
       </c>
       <c r="C84" t="n">
-        <v>4247.42</v>
+        <v>3396.34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57401</v>
+        <v>2.57291</v>
       </c>
       <c r="B85" t="n">
-        <v>4.23442</v>
+        <v>3.34262</v>
       </c>
       <c r="C85" t="n">
-        <v>4234.42</v>
+        <v>3342.62</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60388</v>
+        <v>2.60491</v>
       </c>
       <c r="B86" t="n">
-        <v>4.2243</v>
+        <v>3.29214</v>
       </c>
       <c r="C86" t="n">
-        <v>4224.3</v>
+        <v>3292.14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63374</v>
+        <v>2.63691</v>
       </c>
       <c r="B87" t="n">
-        <v>4.20545</v>
+        <v>3.24473</v>
       </c>
       <c r="C87" t="n">
-        <v>4205.45</v>
+        <v>3244.73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66361</v>
+        <v>2.66989</v>
       </c>
       <c r="B88" t="n">
-        <v>4.19071</v>
+        <v>3.20359</v>
       </c>
       <c r="C88" t="n">
-        <v>4190.71</v>
+        <v>3203.59</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69261</v>
+        <v>2.70152</v>
       </c>
       <c r="B89" t="n">
-        <v>4.17417</v>
+        <v>3.17473</v>
       </c>
       <c r="C89" t="n">
-        <v>4174.17</v>
+        <v>3174.73</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72233</v>
+        <v>2.73224</v>
       </c>
       <c r="B90" t="n">
-        <v>4.15795</v>
+        <v>3.15943</v>
       </c>
       <c r="C90" t="n">
-        <v>4157.95</v>
+        <v>3159.43</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75561</v>
+        <v>2.76204</v>
       </c>
       <c r="B91" t="n">
-        <v>4.13693</v>
+        <v>3.14555</v>
       </c>
       <c r="C91" t="n">
-        <v>4136.93</v>
+        <v>3145.55</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78889</v>
+        <v>2.7902</v>
       </c>
       <c r="B92" t="n">
-        <v>4.11224</v>
+        <v>3.1316</v>
       </c>
       <c r="C92" t="n">
-        <v>4112.24</v>
+        <v>3131.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82217</v>
+        <v>2.81836</v>
       </c>
       <c r="B93" t="n">
-        <v>4.09463</v>
+        <v>3.11627</v>
       </c>
       <c r="C93" t="n">
-        <v>4094.63</v>
+        <v>3116.27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85545</v>
+        <v>2.84652</v>
       </c>
       <c r="B94" t="n">
-        <v>4.07387</v>
+        <v>3.10062</v>
       </c>
       <c r="C94" t="n">
-        <v>4073.87</v>
+        <v>3100.62</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88797</v>
+        <v>2.87544</v>
       </c>
       <c r="B95" t="n">
-        <v>4.05355</v>
+        <v>3.08605</v>
       </c>
       <c r="C95" t="n">
-        <v>4053.55</v>
+        <v>3086.05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91869</v>
+        <v>2.91064</v>
       </c>
       <c r="B96" t="n">
-        <v>4.03027</v>
+        <v>3.06428</v>
       </c>
       <c r="C96" t="n">
-        <v>4030.27</v>
+        <v>3064.28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94941</v>
+        <v>2.94584</v>
       </c>
       <c r="B97" t="n">
-        <v>4.00582</v>
+        <v>3.04652</v>
       </c>
       <c r="C97" t="n">
-        <v>4005.82</v>
+        <v>3046.52</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98013</v>
+        <v>2.97884</v>
       </c>
       <c r="B98" t="n">
-        <v>3.98599</v>
+        <v>3.02653</v>
       </c>
       <c r="C98" t="n">
-        <v>3985.99</v>
+        <v>3026.53</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01085</v>
+        <v>3.01084</v>
       </c>
       <c r="B99" t="n">
-        <v>3.96845</v>
+        <v>3.00714</v>
       </c>
       <c r="C99" t="n">
-        <v>3968.45</v>
+        <v>3007.14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04157</v>
+        <v>3.04284</v>
       </c>
       <c r="B100" t="n">
-        <v>3.94396</v>
+        <v>2.98482</v>
       </c>
       <c r="C100" t="n">
-        <v>3943.96</v>
+        <v>2984.82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07229</v>
+        <v>3.07484</v>
       </c>
       <c r="B101" t="n">
-        <v>3.92788</v>
+        <v>2.96759</v>
       </c>
       <c r="C101" t="n">
-        <v>3927.88</v>
+        <v>2967.59</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10291</v>
+        <v>3.10684</v>
       </c>
       <c r="B102" t="n">
-        <v>3.89701</v>
+        <v>2.95029</v>
       </c>
       <c r="C102" t="n">
-        <v>3897.01</v>
+        <v>2950.29</v>
       </c>
     </row>
   </sheetData>
